--- a/doc/2、计划/功能点估算简表V1.1.xlsx
+++ b/doc/2、计划/功能点估算简表V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="3525"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="3528"/>
   </bookViews>
   <sheets>
     <sheet name="第3章 范围分解与功能点估计" sheetId="32" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="\a">#REF!</definedName>
     <definedName name="\i">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'第3章 范围分解与功能点估计'!$B$6:$L$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'第3章 范围分解与功能点估计'!$B$6:$L$28</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="A">#REF!</definedName>
     <definedName name="CellSum当初MSK">[1]ＡＰ用山積表!$H$17</definedName>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>计算未调整的功能点（UFP)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -297,9 +297,6 @@
     <t>EO</t>
   </si>
   <si>
-    <t>普通</t>
-  </si>
-  <si>
     <t>简单</t>
   </si>
   <si>
@@ -359,12 +356,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EQ</t>
-  </si>
-  <si>
-    <t>复杂</t>
-  </si>
-  <si>
     <t>查询</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -377,198 +368,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EIF</t>
-  </si>
-  <si>
     <t>用户添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子频道管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>悦耳后台管理系统（后台）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合频道管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子频道信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子频道新增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子频道修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子频道查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合频道信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合频道新增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合频道修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合频道查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合频道删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲库管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲库信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲上传</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子频道删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲音量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲试听</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子频道添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子频道删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲排序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌单导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲试听</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲下载</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划制定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级树形结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户信息管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户插播管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>插播信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>插播查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>悦耳后台管理系统（客户端）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -580,273 +380,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>首页信息</t>
+    <t>说明：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户信息展示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息设置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的店铺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间信息显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>插播计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景业态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示业态频道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三种频道切换</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种业态选择</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入频道显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道播放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一首下一首</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放/暂停</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放进度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音量调节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌声切换</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发截止时间12月22日，12月24日~12月26日 进行第一轮测试。从12月27日~12月31日进行第二轮测试，在1月份第一个工作日进行上线。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户新增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放计划管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划新增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>插播发布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>插播删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划制定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>录音添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段新增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放器管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户音乐管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务新增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务删除</t>
+    <t>管理系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1268,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1535,34 +1073,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1704,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1731,12 +1241,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1756,7 +1260,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1765,67 +1275,40 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1852,9 +1335,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,65 +1344,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8759,27 +8181,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S126"/>
+  <dimension ref="B1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="2" customWidth="1"/>
     <col min="7" max="8" width="10" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="11" width="7.375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.75" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="19" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="7.3984375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.69921875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.19921875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="6.3984375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.19921875" style="2" customWidth="1"/>
+    <col min="16" max="19" width="9" style="2" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -8807,99 +8229,99 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:19" ht="13.5">
-      <c r="B3" s="62" t="s">
+    <row r="3" spans="2:19" ht="13.2">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="2:19" ht="14.25">
-      <c r="B4" s="65" t="s">
+    <row r="4" spans="2:19" ht="14.4">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="N4" s="60" t="s">
+      <c r="L4" s="30"/>
+      <c r="N4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
     </row>
-    <row r="5" spans="2:19" ht="13.5">
-      <c r="B5" s="69" t="s">
+    <row r="5" spans="2:19" ht="13.2">
+      <c r="B5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="16" t="s">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="14.25">
-      <c r="B6" s="53" t="s">
+    <row r="6" spans="2:19" ht="14.4">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="H6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -8908,74 +8330,72 @@
       <c r="L6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="22">
         <v>1</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="53"/>
+      <c r="Q6" s="22"/>
       <c r="R6" s="5">
         <v>0</v>
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="2:19" ht="13.5">
-      <c r="B7" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="53" t="s">
+    <row r="7" spans="2:19" ht="13.2">
+      <c r="B7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="18">
-        <v>12.1</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>46</v>
+      <c r="G7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" ref="L7:L119" si="0">IF(AND(K7="EI",J7="简单"),3,IF(AND(K7="EI",J7="普通"),4,IF(AND(K7="EI",J7="复杂"),6,IF(AND(K7="EO",J7="简单"),4,IF(AND(K7="EO",J7="普通"),5,IF(AND(K7="EO",J7="复杂"),7,IF(AND(K7="EQ",J7="简单"),3,IF(AND(K7="EQ",J7="普通"),4,IF(AND(K7="EQ",J7="复杂"),6,IF(AND(K7="ILF",J7="简单"),7,IF(AND(K7="ILF",J7="普通"),10,IF(AND(K7="ILF",J7="复杂"),15,IF(AND(K7="EIF",J7="简单"),5,IF(AND(K7="EIF",J7="普通"),7,IF(AND(K7="EIF",J7="复杂"),10,0)))))))))))))))</f>
+        <f t="shared" ref="L7:L27" si="0">IF(AND(K7="EI",J7="简单"),3,IF(AND(K7="EI",J7="普通"),4,IF(AND(K7="EI",J7="复杂"),6,IF(AND(K7="EO",J7="简单"),4,IF(AND(K7="EO",J7="普通"),5,IF(AND(K7="EO",J7="复杂"),7,IF(AND(K7="EQ",J7="简单"),3,IF(AND(K7="EQ",J7="普通"),4,IF(AND(K7="EQ",J7="复杂"),6,IF(AND(K7="ILF",J7="简单"),7,IF(AND(K7="ILF",J7="普通"),10,IF(AND(K7="ILF",J7="复杂"),15,IF(AND(K7="EIF",J7="简单"),5,IF(AND(K7="EIF",J7="普通"),7,IF(AND(K7="EIF",J7="复杂"),10,0)))))))))))))))</f>
         <v>7</v>
       </c>
-      <c r="N7" s="53">
+      <c r="N7" s="22">
         <v>2</v>
       </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
+      <c r="O7" s="22"/>
+      <c r="P7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="53"/>
+      <c r="Q7" s="22"/>
       <c r="R7" s="5">
         <v>0</v>
       </c>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="2:19" ht="13.5">
+    <row r="8" spans="2:19" ht="13.2">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="26" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>43</v>
@@ -8984,32 +8404,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="22">
         <v>3</v>
       </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53" t="s">
+      <c r="O8" s="22"/>
+      <c r="P8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="53"/>
+      <c r="Q8" s="22"/>
       <c r="R8" s="5">
         <v>3</v>
       </c>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="2:19" ht="13.5">
+    <row r="9" spans="2:19" ht="13.2">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
       <c r="G9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="26" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>43</v>
@@ -9018,32 +8438,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N9" s="22">
         <v>4</v>
       </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53" t="s">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="53"/>
+      <c r="Q9" s="22"/>
       <c r="R9" s="5">
         <v>2</v>
       </c>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="2:19" ht="13.5">
+    <row r="10" spans="2:19" ht="13.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="26" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>43</v>
@@ -9052,32 +8472,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N10" s="53">
+      <c r="N10" s="22">
         <v>5</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53" t="s">
+      <c r="O10" s="22"/>
+      <c r="P10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="53"/>
+      <c r="Q10" s="22"/>
       <c r="R10" s="5">
         <v>3</v>
       </c>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="2:19" ht="13.5">
+    <row r="11" spans="2:19" ht="13.2">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="26" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>44</v>
@@ -9086,34 +8506,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="22">
         <v>6</v>
       </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53" t="s">
+      <c r="O11" s="22"/>
+      <c r="P11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="53"/>
+      <c r="Q11" s="22"/>
       <c r="R11" s="5">
         <v>3</v>
       </c>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="2:19" ht="13.5">
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
+    <row r="12" spans="2:19" ht="13.2">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
@@ -9122,32 +8542,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N12" s="53">
+      <c r="N12" s="22">
         <v>7</v>
       </c>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53" t="s">
+      <c r="O12" s="22"/>
+      <c r="P12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="53"/>
+      <c r="Q12" s="22"/>
       <c r="R12" s="5">
         <v>5</v>
       </c>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="2:19" ht="13.5">
+    <row r="13" spans="2:19" ht="13.2">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="26" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
@@ -9156,20 +8576,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N13" s="53">
+      <c r="N13" s="22">
         <v>8</v>
       </c>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53" t="s">
+      <c r="O13" s="22"/>
+      <c r="P13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="53"/>
+      <c r="Q13" s="22"/>
       <c r="R13" s="5">
         <v>0</v>
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="2:19" ht="13.5">
+    <row r="14" spans="2:19" ht="13.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
@@ -9178,10 +8598,10 @@
       <c r="G14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="26" t="s">
-        <v>46</v>
+      <c r="H14" s="20"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>43</v>
@@ -9190,20 +8610,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N14" s="53">
+      <c r="N14" s="22">
         <v>9</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53" t="s">
+      <c r="O14" s="22"/>
+      <c r="P14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="53"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="5">
         <v>4</v>
       </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="2:19" ht="13.5">
+    <row r="15" spans="2:19" ht="13.2">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
@@ -9212,10 +8632,10 @@
       <c r="G15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="26" t="s">
-        <v>46</v>
+      <c r="H15" s="20"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>43</v>
@@ -9224,20 +8644,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N15" s="53">
+      <c r="N15" s="22">
         <v>10</v>
       </c>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53" t="s">
+      <c r="O15" s="22"/>
+      <c r="P15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="53"/>
+      <c r="Q15" s="22"/>
       <c r="R15" s="5">
         <v>1</v>
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="2:19" ht="13.5">
+    <row r="16" spans="2:19" ht="13.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -9246,10 +8666,10 @@
       <c r="G16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="26" t="s">
-        <v>46</v>
+      <c r="H16" s="20"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
@@ -9258,34 +8678,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N16" s="53">
+      <c r="N16" s="22">
         <v>11</v>
       </c>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53" t="s">
+      <c r="O16" s="22"/>
+      <c r="P16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="53"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="5">
         <v>2</v>
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="2:19" ht="13.5">
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
+    <row r="17" spans="2:19" ht="13.2">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="26" t="s">
-        <v>46</v>
+      <c r="H17" s="20"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>42</v>
@@ -9294,20 +8714,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N17" s="22">
         <v>12</v>
       </c>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53" t="s">
+      <c r="O17" s="22"/>
+      <c r="P17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="53"/>
+      <c r="Q17" s="22"/>
       <c r="R17" s="5">
         <v>5</v>
       </c>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:19" ht="13.5">
+    <row r="18" spans="2:19" ht="13.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
@@ -9316,10 +8736,10 @@
       <c r="G18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="26" t="s">
-        <v>46</v>
+      <c r="H18" s="20"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>43</v>
@@ -9328,20 +8748,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N18" s="22">
         <v>13</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53" t="s">
+      <c r="O18" s="22"/>
+      <c r="P18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Q18" s="53"/>
+      <c r="Q18" s="22"/>
       <c r="R18" s="5">
         <v>3</v>
       </c>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="2:19" ht="13.5">
+    <row r="19" spans="2:19" ht="13.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
@@ -9350,10 +8770,10 @@
       <c r="G19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="26" t="s">
-        <v>46</v>
+      <c r="H19" s="20"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>43</v>
@@ -9362,20 +8782,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N19" s="53">
+      <c r="N19" s="22">
         <v>14</v>
       </c>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53" t="s">
+      <c r="O19" s="22"/>
+      <c r="P19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="53"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="5">
         <v>4</v>
       </c>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="2:19" ht="13.5">
+    <row r="20" spans="2:19" ht="13.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
@@ -9384,10 +8804,10 @@
       <c r="G20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="26" t="s">
-        <v>46</v>
+      <c r="H20" s="20"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>43</v>
@@ -9396,19 +8816,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N20" s="54" t="s">
+      <c r="N20" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="56"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
       <c r="R20" s="5">
         <f>SUM(R6:R19)</f>
         <v>35</v>
       </c>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="2:19" ht="13.5">
+    <row r="21" spans="2:19" ht="13.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
@@ -9417,10 +8837,10 @@
       <c r="G21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="26" t="s">
-        <v>46</v>
+      <c r="H21" s="20"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>44</v>
@@ -9429,32 +8849,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="2:19" ht="13.5">
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
+    <row r="22" spans="2:19" ht="13.2">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="26" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>42</v>
@@ -9463,26 +8883,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="2:19" ht="13.5">
+    <row r="23" spans="2:19" ht="13.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="26" t="s">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>43</v>
@@ -9491,33 +8911,33 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N23" s="57" t="s">
+      <c r="N23" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57">
-        <f>ROUND(D120*(0.65+0.01*R20),0)</f>
-        <v>370</v>
-      </c>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34">
+        <f>ROUND(D28*(0.65+0.01*R20),0)</f>
+        <v>87</v>
+      </c>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="2:19" ht="13.5">
+    <row r="24" spans="2:19" ht="13.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="26" t="s">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>42</v>
@@ -9527,19 +8947,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="13.5">
+    <row r="25" spans="2:19" ht="13.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="26" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>44</v>
@@ -9549,19 +8969,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="13.5">
+    <row r="26" spans="2:19" ht="13.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="26" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>43</v>
@@ -9571,19 +8991,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="13.5">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
+    <row r="27" spans="2:19" ht="13.2">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="26" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>43</v>
@@ -9593,1818 +9013,127 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="13.5">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="18">
-        <v>12.13</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="8">
-        <f t="shared" ref="L28:L40" si="1">IF(AND(K28="EI",J28="简单"),3,IF(AND(K28="EI",J28="普通"),4,IF(AND(K28="EI",J28="复杂"),6,IF(AND(K28="EO",J28="简单"),4,IF(AND(K28="EO",J28="普通"),5,IF(AND(K28="EO",J28="复杂"),7,IF(AND(K28="EQ",J28="简单"),3,IF(AND(K28="EQ",J28="普通"),4,IF(AND(K28="EQ",J28="复杂"),6,IF(AND(K28="ILF",J28="简单"),7,IF(AND(K28="ILF",J28="普通"),10,IF(AND(K28="ILF",J28="复杂"),15,IF(AND(K28="EIF",J28="简单"),5,IF(AND(K28="EIF",J28="普通"),7,IF(AND(K28="EIF",J28="复杂"),10,0)))))))))))))))</f>
-        <v>10</v>
-      </c>
+    <row r="28" spans="2:19" ht="13.2" hidden="1">
+      <c r="B28" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="12">
+        <f>SUM(L7:L28)</f>
+        <v>87</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+    <row r="29" spans="2:19" ht="13.2">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="2:19" ht="13.5">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="8"/>
+    <row r="31" spans="2:19">
+      <c r="B31" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+    <row r="32" spans="2:19">
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
     </row>
-    <row r="32" spans="2:19" ht="13.5">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+    <row r="33" spans="2:9">
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
     </row>
-    <row r="33" spans="2:12" ht="13.5">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="13.5">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="13.5">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="8">
-        <f t="shared" ref="L35" si="2">IF(AND(K35="EI",J35="简单"),3,IF(AND(K35="EI",J35="普通"),4,IF(AND(K35="EI",J35="复杂"),6,IF(AND(K35="EO",J35="简单"),4,IF(AND(K35="EO",J35="普通"),5,IF(AND(K35="EO",J35="复杂"),7,IF(AND(K35="EQ",J35="简单"),3,IF(AND(K35="EQ",J35="普通"),4,IF(AND(K35="EQ",J35="复杂"),6,IF(AND(K35="ILF",J35="简单"),7,IF(AND(K35="ILF",J35="普通"),10,IF(AND(K35="ILF",J35="复杂"),15,IF(AND(K35="EIF",J35="简单"),5,IF(AND(K35="EIF",J35="普通"),7,IF(AND(K35="EIF",J35="复杂"),10,0)))))))))))))))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="13.5">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="13.5">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="13.5">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="2:12" ht="13.5">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="2:12" ht="13.5">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="13.5">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="18">
-        <v>12.21</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L41" s="8">
-        <f t="shared" ref="L41:L49" si="3">IF(AND(K41="EI",J41="简单"),3,IF(AND(K41="EI",J41="普通"),4,IF(AND(K41="EI",J41="复杂"),6,IF(AND(K41="EO",J41="简单"),4,IF(AND(K41="EO",J41="普通"),5,IF(AND(K41="EO",J41="复杂"),7,IF(AND(K41="EQ",J41="简单"),3,IF(AND(K41="EQ",J41="普通"),4,IF(AND(K41="EQ",J41="复杂"),6,IF(AND(K41="ILF",J41="简单"),7,IF(AND(K41="ILF",J41="普通"),10,IF(AND(K41="ILF",J41="复杂"),15,IF(AND(K41="EIF",J41="简单"),5,IF(AND(K41="EIF",J41="普通"),7,IF(AND(K41="EIF",J41="复杂"),10,0)))))))))))))))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="13.5">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L42" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="13.5">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="2:12" ht="13.5">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="2:12" ht="13.5">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="2:12" ht="13.5">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="13.5">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L47" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="13.5">
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="2:12" ht="13.5">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K49" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L49" s="8">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="13.5">
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="27">
-        <v>12.9</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L50" s="8">
-        <f t="shared" ref="L50:L56" si="4">IF(AND(K50="EI",J50="简单"),3,IF(AND(K50="EI",J50="普通"),4,IF(AND(K50="EI",J50="复杂"),6,IF(AND(K50="EO",J50="简单"),4,IF(AND(K50="EO",J50="普通"),5,IF(AND(K50="EO",J50="复杂"),7,IF(AND(K50="EQ",J50="简单"),3,IF(AND(K50="EQ",J50="普通"),4,IF(AND(K50="EQ",J50="复杂"),6,IF(AND(K50="ILF",J50="简单"),7,IF(AND(K50="ILF",J50="普通"),10,IF(AND(K50="ILF",J50="复杂"),15,IF(AND(K50="EIF",J50="简单"),5,IF(AND(K50="EIF",J50="普通"),7,IF(AND(K50="EIF",J50="复杂"),10,0)))))))))))))))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" ht="13.5">
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L51" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="13.5">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L52" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" ht="13.5">
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L53" s="8">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="13.5">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="8"/>
-    </row>
-    <row r="55" spans="2:12" ht="13.5">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I55" s="27"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="8"/>
-    </row>
-    <row r="56" spans="2:12" ht="13.5">
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L56" s="8">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="13.5">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H57" s="29"/>
-      <c r="I57" s="18">
-        <v>12.9</v>
-      </c>
-      <c r="J57" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L57" s="8">
-        <f t="shared" ref="L57:L63" si="5">IF(AND(K57="EI",J57="简单"),3,IF(AND(K57="EI",J57="普通"),4,IF(AND(K57="EI",J57="复杂"),6,IF(AND(K57="EO",J57="简单"),4,IF(AND(K57="EO",J57="普通"),5,IF(AND(K57="EO",J57="复杂"),7,IF(AND(K57="EQ",J57="简单"),3,IF(AND(K57="EQ",J57="普通"),4,IF(AND(K57="EQ",J57="复杂"),6,IF(AND(K57="ILF",J57="简单"),7,IF(AND(K57="ILF",J57="普通"),10,IF(AND(K57="ILF",J57="复杂"),15,IF(AND(K57="EIF",J57="简单"),5,IF(AND(K57="EIF",J57="普通"),7,IF(AND(K57="EIF",J57="复杂"),10,0)))))))))))))))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="13.5">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L58" s="8">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I59" s="27"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="8"/>
-    </row>
-    <row r="61" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="I61" s="27"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="8"/>
-    </row>
-    <row r="62" spans="2:12" ht="13.5">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L62" s="8">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" ht="13.5">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L63" s="8">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" ht="13.5">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L64" s="8">
-        <f t="shared" ref="L64" si="6">IF(AND(K64="EI",J64="简单"),3,IF(AND(K64="EI",J64="普通"),4,IF(AND(K64="EI",J64="复杂"),6,IF(AND(K64="EO",J64="简单"),4,IF(AND(K64="EO",J64="普通"),5,IF(AND(K64="EO",J64="复杂"),7,IF(AND(K64="EQ",J64="简单"),3,IF(AND(K64="EQ",J64="普通"),4,IF(AND(K64="EQ",J64="复杂"),6,IF(AND(K64="ILF",J64="简单"),7,IF(AND(K64="ILF",J64="普通"),10,IF(AND(K64="ILF",J64="复杂"),15,IF(AND(K64="EIF",J64="简单"),5,IF(AND(K64="EIF",J64="普通"),7,IF(AND(K64="EIF",J64="复杂"),10,0)))))))))))))))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" ht="13.5">
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="29"/>
-      <c r="I65" s="18">
-        <v>12.16</v>
-      </c>
-      <c r="J65" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L65" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" ht="13.5">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H66" s="29"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L66" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" ht="13.5">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="I67" s="27"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="8"/>
-    </row>
-    <row r="68" spans="2:12" ht="13.5">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="I68" s="27"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="8"/>
-    </row>
-    <row r="69" spans="2:12" ht="13.5">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="I69" s="27"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="8"/>
-    </row>
-    <row r="70" spans="2:12" ht="13.5">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H70" s="29"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L70" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" ht="13.5">
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H71" s="29"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L71" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="13.5">
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="H72" s="42"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="8"/>
-    </row>
-    <row r="73" spans="2:12" ht="13.5">
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="I73" s="40"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="2:12" ht="13.5">
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="I74" s="40"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="8"/>
-    </row>
-    <row r="75" spans="2:12" ht="13.5">
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="I75" s="40"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="8"/>
-    </row>
-    <row r="76" spans="2:12" ht="13.5">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="H76" s="29"/>
-      <c r="I76" s="27">
-        <v>12.23</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K76" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="L76" s="8">
-        <f t="shared" ref="L76:L84" si="7">IF(AND(K76="EI",J76="简单"),3,IF(AND(K76="EI",J76="普通"),4,IF(AND(K76="EI",J76="复杂"),6,IF(AND(K76="EO",J76="简单"),4,IF(AND(K76="EO",J76="普通"),5,IF(AND(K76="EO",J76="复杂"),7,IF(AND(K76="EQ",J76="简单"),3,IF(AND(K76="EQ",J76="普通"),4,IF(AND(K76="EQ",J76="复杂"),6,IF(AND(K76="ILF",J76="简单"),7,IF(AND(K76="ILF",J76="普通"),10,IF(AND(K76="ILF",J76="复杂"),15,IF(AND(K76="EIF",J76="简单"),5,IF(AND(K76="EIF",J76="普通"),7,IF(AND(K76="EIF",J76="复杂"),10,0)))))))))))))))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" ht="13.5">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H77" s="29"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K77" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L77" s="8">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" ht="13.5">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="2:12" ht="13.5">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="H79" s="29"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="2:12" ht="13.5">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="H80" s="29"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="2:12" ht="13.5">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="H81" s="29"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K81" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L81" s="8">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" ht="13.5">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H82" s="29"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K82" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L82" s="8">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" ht="13.5">
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E83" s="38"/>
-      <c r="F83" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G83" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="H83" s="37"/>
-      <c r="I83" s="36">
-        <v>12.16</v>
-      </c>
-      <c r="J83" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K83" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="L83" s="8">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" ht="13.5">
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H84" s="37"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="L84" s="8">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" ht="13.5">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="I85" s="36"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="2:12" ht="13.5">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="I86" s="36"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="2:12" ht="13.5">
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="I87" s="40"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="2:12" ht="13.5">
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="H88" s="42"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K88" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="L88" s="8">
-        <f t="shared" ref="L88:L89" si="8">IF(AND(K88="EI",J88="简单"),3,IF(AND(K88="EI",J88="普通"),4,IF(AND(K88="EI",J88="复杂"),6,IF(AND(K88="EO",J88="简单"),4,IF(AND(K88="EO",J88="普通"),5,IF(AND(K88="EO",J88="复杂"),7,IF(AND(K88="EQ",J88="简单"),3,IF(AND(K88="EQ",J88="普通"),4,IF(AND(K88="EQ",J88="复杂"),6,IF(AND(K88="ILF",J88="简单"),7,IF(AND(K88="ILF",J88="普通"),10,IF(AND(K88="ILF",J88="复杂"),15,IF(AND(K88="EIF",J88="简单"),5,IF(AND(K88="EIF",J88="普通"),7,IF(AND(K88="EIF",J88="复杂"),10,0)))))))))))))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" ht="13.5">
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="H89" s="42"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K89" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L89" s="8">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" customFormat="1" ht="14.25">
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="G90" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="H90" s="42"/>
-      <c r="I90" s="40"/>
-    </row>
-    <row r="91" spans="2:12" s="72" customFormat="1" ht="14.25">
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="H91" s="42"/>
-      <c r="I91" s="40"/>
-    </row>
-    <row r="92" spans="2:12" s="72" customFormat="1" ht="14.25">
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="I92" s="40"/>
-    </row>
-    <row r="93" spans="2:12" s="72" customFormat="1" ht="14.25">
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="I93" s="40"/>
-    </row>
-    <row r="94" spans="2:12" s="72" customFormat="1" ht="14.25">
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="I94" s="40"/>
-    </row>
-    <row r="95" spans="2:12" s="72" customFormat="1" ht="14.25">
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="H95" s="42"/>
-      <c r="I95" s="40"/>
-    </row>
-    <row r="96" spans="2:12" s="72" customFormat="1" ht="14.25">
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="H96" s="42"/>
-      <c r="I96" s="40"/>
-    </row>
-    <row r="97" spans="2:12" customFormat="1" ht="14.25">
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="G97" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="H97" s="42"/>
-      <c r="I97" s="40"/>
-    </row>
-    <row r="98" spans="2:12" s="72" customFormat="1" ht="14.25">
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="H98" s="42"/>
-      <c r="I98" s="40"/>
-    </row>
-    <row r="99" spans="2:12" s="72" customFormat="1" ht="14.25">
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="H99" s="42"/>
-      <c r="I99" s="40"/>
-    </row>
-    <row r="100" spans="2:12" s="72" customFormat="1" ht="14.25">
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="H100" s="42"/>
-      <c r="I100" s="40"/>
-    </row>
-    <row r="101" spans="2:12" ht="13.5">
-      <c r="B101" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="77"/>
-      <c r="D101" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="G101" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="H101" s="42"/>
-      <c r="I101" s="40">
-        <v>12.1</v>
-      </c>
-      <c r="J101" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="K101" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="L101" s="75">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" ht="13.5">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G102" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="H102" s="70"/>
-      <c r="I102" s="71">
-        <v>12.9</v>
-      </c>
-      <c r="J102" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L102" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="2:12" ht="13.5">
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="H103" s="29"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K103" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L103" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" ht="13.5">
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="H104" s="29"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K104" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L104" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" ht="13.5">
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G105" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="H105" s="29"/>
-      <c r="I105" s="27">
-        <v>12.16</v>
-      </c>
-      <c r="J105" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L105" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="2:12" ht="13.5">
-      <c r="B106" s="59"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H106" s="29"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K106" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L106" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" ht="13.5">
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H107" s="29"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L107" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" ht="13.5">
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H108" s="32"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="2:12" ht="13.5">
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G109" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H109" s="32"/>
-      <c r="I109" s="31">
-        <v>12.21</v>
-      </c>
-      <c r="J109" s="26"/>
-      <c r="K109" s="34"/>
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="2:12" ht="13.5">
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H110" s="32"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="34"/>
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="2:12" ht="13.5">
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H111" s="32"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="34"/>
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="2:12" ht="13.5">
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H112" s="32"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="34"/>
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="2:12" ht="13.5">
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H113" s="32"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="26"/>
-      <c r="K113" s="34"/>
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="2:12" ht="13.5">
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G114" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H114" s="32"/>
-      <c r="I114" s="31">
-        <v>12.23</v>
-      </c>
-      <c r="J114" s="26"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="2:12" ht="13.5">
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="H115" s="32"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="34"/>
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="2:12" ht="13.5">
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="H116" s="32"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="34"/>
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="2:12" ht="13.5">
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="H117" s="32"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="34"/>
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="2:12" ht="13.5">
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="32"/>
-      <c r="G118" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="H118" s="32"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="34"/>
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="2:12" ht="13.5">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H119" s="29"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L119" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" ht="13.5" hidden="1">
-      <c r="B120" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" s="58"/>
-      <c r="D120" s="14">
-        <f>SUM(L7:L120)</f>
-        <v>370</v>
-      </c>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="15"/>
-    </row>
-    <row r="121" spans="2:12" ht="13.5">
-      <c r="B121" s="35"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
-      <c r="L121" s="15"/>
-    </row>
-    <row r="123" spans="2:12">
-      <c r="B123" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C123" s="45"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="45"/>
-      <c r="I123" s="46"/>
-    </row>
-    <row r="124" spans="2:12">
-      <c r="B124" s="47"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="49"/>
-    </row>
-    <row r="125" spans="2:12">
-      <c r="B125" s="47"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="48"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="49"/>
-    </row>
-    <row r="126" spans="2:12">
-      <c r="B126" s="50"/>
-      <c r="C126" s="51"/>
-      <c r="D126" s="51"/>
-      <c r="E126" s="51"/>
-      <c r="F126" s="51"/>
-      <c r="G126" s="51"/>
-      <c r="H126" s="51"/>
-      <c r="I126" s="52"/>
+    <row r="34" spans="2:9">
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:L120">
+  <autoFilter ref="B6:L28">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
-  <mergeCells count="53">
+  <mergeCells count="49">
+    <mergeCell ref="B31:I34"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:K5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B12:C12"/>
@@ -11413,61 +9142,16 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B123:I126"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B83:C83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R6:R19">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K27">
       <formula1>"EI,EO,EQ,ILF,EIF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J27">
       <formula1>"复杂,普通,简单"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/2、计划/功能点估算简表V1.1.xlsx
+++ b/doc/2、计划/功能点估算简表V1.1.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="\a">#REF!</definedName>
     <definedName name="\i">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'第3章 范围分解与功能点估计'!$B$6:$L$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'第3章 范围分解与功能点估计'!$B$6:$L$51</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="A">#REF!</definedName>
     <definedName name="CellSum当初MSK">[1]ＡＰ用山積表!$H$17</definedName>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
   <si>
     <t>计算未调整的功能点（UFP)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -384,7 +384,79 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>管理系统</t>
+    <t>房屋销售管理系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋信息管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员数据统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘数据统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计导出</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +1286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1266,7 +1338,16 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8181,10 +8262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S34"/>
+  <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -8196,12 +8277,12 @@
     <col min="6" max="6" width="10.69921875" style="2" customWidth="1"/>
     <col min="7" max="8" width="10" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="11" width="7.3984375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.69921875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.19921875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="6.3984375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.19921875" style="2" customWidth="1"/>
-    <col min="16" max="19" width="9" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.3984375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.69921875" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3984375" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="19" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -8230,69 +8311,69 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:19" ht="13.2">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="2:19" ht="14.4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="N4" s="32" t="s">
+      <c r="L4" s="33"/>
+      <c r="N4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
     </row>
     <row r="5" spans="2:19" ht="13.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34" t="s">
+      <c r="O5" s="37"/>
+      <c r="P5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="34"/>
+      <c r="Q5" s="37"/>
       <c r="R5" s="14" t="s">
         <v>14</v>
       </c>
@@ -8301,14 +8382,14 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="14.4">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
@@ -8330,28 +8411,28 @@
       <c r="L6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="25">
         <v>1</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22" t="s">
+      <c r="O6" s="25"/>
+      <c r="P6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="22"/>
+      <c r="Q6" s="25"/>
       <c r="R6" s="5">
         <v>0</v>
       </c>
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="2:19" ht="13.2">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="5" t="s">
         <v>49</v>
       </c>
@@ -8367,23 +8448,23 @@
         <v>42</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" ref="L7:L27" si="0">IF(AND(K7="EI",J7="简单"),3,IF(AND(K7="EI",J7="普通"),4,IF(AND(K7="EI",J7="复杂"),6,IF(AND(K7="EO",J7="简单"),4,IF(AND(K7="EO",J7="普通"),5,IF(AND(K7="EO",J7="复杂"),7,IF(AND(K7="EQ",J7="简单"),3,IF(AND(K7="EQ",J7="普通"),4,IF(AND(K7="EQ",J7="复杂"),6,IF(AND(K7="ILF",J7="简单"),7,IF(AND(K7="ILF",J7="普通"),10,IF(AND(K7="ILF",J7="复杂"),15,IF(AND(K7="EIF",J7="简单"),5,IF(AND(K7="EIF",J7="普通"),7,IF(AND(K7="EIF",J7="复杂"),10,0)))))))))))))))</f>
+        <f t="shared" ref="L7:L26" si="0">IF(AND(K7="EI",J7="简单"),3,IF(AND(K7="EI",J7="普通"),4,IF(AND(K7="EI",J7="复杂"),6,IF(AND(K7="EO",J7="简单"),4,IF(AND(K7="EO",J7="普通"),5,IF(AND(K7="EO",J7="复杂"),7,IF(AND(K7="EQ",J7="简单"),3,IF(AND(K7="EQ",J7="普通"),4,IF(AND(K7="EQ",J7="复杂"),6,IF(AND(K7="ILF",J7="简单"),7,IF(AND(K7="ILF",J7="普通"),10,IF(AND(K7="ILF",J7="复杂"),15,IF(AND(K7="EIF",J7="简单"),5,IF(AND(K7="EIF",J7="普通"),7,IF(AND(K7="EIF",J7="复杂"),10,0)))))))))))))))</f>
         <v>7</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="25">
         <v>2</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22" t="s">
+      <c r="O7" s="25"/>
+      <c r="P7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="22"/>
+      <c r="Q7" s="25"/>
       <c r="R7" s="5">
         <v>0</v>
       </c>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="2:19" ht="13.2">
+    <row r="8" spans="2:19" ht="13.2" hidden="1">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
@@ -8404,20 +8485,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="25">
         <v>3</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22" t="s">
+      <c r="O8" s="25"/>
+      <c r="P8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="22"/>
+      <c r="Q8" s="25"/>
       <c r="R8" s="5">
         <v>3</v>
       </c>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="2:19" ht="13.2">
+    <row r="9" spans="2:19" ht="13.2" hidden="1">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
@@ -8438,20 +8519,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="25">
         <v>4</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22" t="s">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="22"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="5">
         <v>2</v>
       </c>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="2:19" ht="13.2">
+    <row r="10" spans="2:19" ht="13.2" hidden="1">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
@@ -8472,20 +8553,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="25">
         <v>5</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22" t="s">
+      <c r="O10" s="25"/>
+      <c r="P10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="22"/>
+      <c r="Q10" s="25"/>
       <c r="R10" s="5">
         <v>3</v>
       </c>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="2:19" ht="13.2">
+    <row r="11" spans="2:19" ht="13.2" hidden="1">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
@@ -8506,22 +8587,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="25">
         <v>6</v>
       </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="22"/>
+      <c r="Q11" s="25"/>
       <c r="R11" s="5">
         <v>3</v>
       </c>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="2:19" ht="13.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+    <row r="12" spans="2:19" ht="13.2" hidden="1">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9" t="s">
@@ -8542,20 +8623,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="25">
         <v>7</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22" t="s">
+      <c r="O12" s="25"/>
+      <c r="P12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="22"/>
+      <c r="Q12" s="25"/>
       <c r="R12" s="5">
         <v>5</v>
       </c>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="2:19" ht="13.2">
+    <row r="13" spans="2:19" ht="13.2" hidden="1">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
@@ -8576,20 +8657,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="25">
         <v>8</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22" t="s">
+      <c r="O13" s="25"/>
+      <c r="P13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="22"/>
+      <c r="Q13" s="25"/>
       <c r="R13" s="5">
         <v>0</v>
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="2:19" ht="13.2">
+    <row r="14" spans="2:19" ht="13.2" hidden="1">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
@@ -8610,20 +8691,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="25">
         <v>9</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22" t="s">
+      <c r="O14" s="25"/>
+      <c r="P14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="22"/>
+      <c r="Q14" s="25"/>
       <c r="R14" s="5">
         <v>4</v>
       </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="2:19" ht="13.2">
+    <row r="15" spans="2:19" ht="13.2" hidden="1">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
@@ -8644,20 +8725,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="25">
         <v>10</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22" t="s">
+      <c r="O15" s="25"/>
+      <c r="P15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="22"/>
+      <c r="Q15" s="25"/>
       <c r="R15" s="5">
         <v>1</v>
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="2:19" ht="13.2">
+    <row r="16" spans="2:19" ht="13.2" hidden="1">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -8678,22 +8759,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="25">
         <v>11</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22" t="s">
+      <c r="O16" s="25"/>
+      <c r="P16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="22"/>
+      <c r="Q16" s="25"/>
       <c r="R16" s="5">
         <v>2</v>
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="2:19" ht="13.2">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+    <row r="17" spans="2:19" ht="13.2" hidden="1">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9" t="s">
@@ -8714,20 +8795,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="25">
         <v>12</v>
       </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22" t="s">
+      <c r="O17" s="25"/>
+      <c r="P17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="22"/>
+      <c r="Q17" s="25"/>
       <c r="R17" s="5">
         <v>5</v>
       </c>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:19" ht="13.2">
+    <row r="18" spans="2:19" ht="13.2" hidden="1">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
@@ -8748,20 +8829,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="25">
         <v>13</v>
       </c>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22" t="s">
+      <c r="O18" s="25"/>
+      <c r="P18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q18" s="22"/>
+      <c r="Q18" s="25"/>
       <c r="R18" s="5">
         <v>3</v>
       </c>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="2:19" ht="13.2">
+    <row r="19" spans="2:19" ht="13.2" hidden="1">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
@@ -8782,20 +8863,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="25">
         <v>14</v>
       </c>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22" t="s">
+      <c r="O19" s="25"/>
+      <c r="P19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="22"/>
+      <c r="Q19" s="25"/>
       <c r="R19" s="5">
         <v>4</v>
       </c>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="2:19" ht="13.2">
+    <row r="20" spans="2:19" ht="13.2" hidden="1">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
@@ -8816,19 +8897,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="46"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="49"/>
       <c r="R20" s="5">
         <f>SUM(R6:R19)</f>
         <v>35</v>
       </c>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="2:19" ht="13.2">
+    <row r="21" spans="2:19" ht="13.2" hidden="1">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
@@ -8860,9 +8941,9 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="2:19" ht="13.2">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+    <row r="22" spans="2:19" ht="13.2" hidden="1">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="9" t="s">
@@ -8890,7 +8971,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="2:19" ht="13.2">
+    <row r="23" spans="2:19" ht="13.2" hidden="1">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
@@ -8911,19 +8992,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N23" s="34" t="s">
+      <c r="N23" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34">
-        <f>ROUND(D28*(0.65+0.01*R20),0)</f>
-        <v>87</v>
-      </c>
-      <c r="Q23" s="34"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37">
+        <f>ROUND(D51*(0.65+0.01*R20),0)</f>
+        <v>167</v>
+      </c>
+      <c r="Q23" s="37"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="2:19" ht="13.2">
+    <row r="24" spans="2:19" ht="13.2" hidden="1">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9"/>
@@ -8947,7 +9028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="13.2">
+    <row r="25" spans="2:19" ht="13.2" hidden="1">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9"/>
@@ -8969,7 +9050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="13.2">
+    <row r="26" spans="2:19" ht="13.2" hidden="1">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9"/>
@@ -8991,115 +9072,641 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="13.2">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+    <row r="27" spans="2:19" ht="13.2" hidden="1">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="19" t="s">
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:19" ht="13.2">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" ht="13.2" hidden="1">
-      <c r="B28" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="12">
-        <f>SUM(L7:L28)</f>
-        <v>87</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
+      <c r="K28" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" ref="L28:L30" si="1">IF(AND(K28="EI",J28="简单"),3,IF(AND(K28="EI",J28="普通"),4,IF(AND(K28="EI",J28="复杂"),6,IF(AND(K28="EO",J28="简单"),4,IF(AND(K28="EO",J28="普通"),5,IF(AND(K28="EO",J28="复杂"),7,IF(AND(K28="EQ",J28="简单"),3,IF(AND(K28="EQ",J28="普通"),4,IF(AND(K28="EQ",J28="复杂"),6,IF(AND(K28="ILF",J28="简单"),7,IF(AND(K28="ILF",J28="普通"),10,IF(AND(K28="ILF",J28="复杂"),15,IF(AND(K28="EIF",J28="简单"),5,IF(AND(K28="EIF",J28="普通"),7,IF(AND(K28="EIF",J28="复杂"),10,0)))))))))))))))</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="2:19" ht="13.2">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="13"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="2:19">
-      <c r="B31" s="35" t="s">
+    <row r="30" spans="2:19" ht="13.2">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="13.2">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="2:19" ht="13.2">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" ref="L32:L35" si="2">IF(AND(K32="EI",J32="简单"),3,IF(AND(K32="EI",J32="普通"),4,IF(AND(K32="EI",J32="复杂"),6,IF(AND(K32="EO",J32="简单"),4,IF(AND(K32="EO",J32="普通"),5,IF(AND(K32="EO",J32="复杂"),7,IF(AND(K32="EQ",J32="简单"),3,IF(AND(K32="EQ",J32="普通"),4,IF(AND(K32="EQ",J32="复杂"),6,IF(AND(K32="ILF",J32="简单"),7,IF(AND(K32="ILF",J32="普通"),10,IF(AND(K32="ILF",J32="复杂"),15,IF(AND(K32="EIF",J32="简单"),5,IF(AND(K32="EIF",J32="普通"),7,IF(AND(K32="EIF",J32="复杂"),10,0)))))))))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="N32" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="21">
+        <f>SUM(R19:R31)</f>
+        <v>39</v>
+      </c>
+      <c r="S32" s="21"/>
+    </row>
+    <row r="33" spans="2:19" ht="13.2">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="13.2">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="13.2">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="13.2">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:19" ht="13.2">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" ref="L37:L40" si="3">IF(AND(K37="EI",J37="简单"),3,IF(AND(K37="EI",J37="普通"),4,IF(AND(K37="EI",J37="复杂"),6,IF(AND(K37="EO",J37="简单"),4,IF(AND(K37="EO",J37="普通"),5,IF(AND(K37="EO",J37="复杂"),7,IF(AND(K37="EQ",J37="简单"),3,IF(AND(K37="EQ",J37="普通"),4,IF(AND(K37="EQ",J37="复杂"),6,IF(AND(K37="ILF",J37="简单"),7,IF(AND(K37="ILF",J37="普通"),10,IF(AND(K37="ILF",J37="复杂"),15,IF(AND(K37="EIF",J37="简单"),5,IF(AND(K37="EIF",J37="普通"),7,IF(AND(K37="EIF",J37="复杂"),10,0)))))))))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="N37" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="21">
+        <f>SUM(R24:R36)</f>
+        <v>39</v>
+      </c>
+      <c r="S37" s="21"/>
+    </row>
+    <row r="38" spans="2:19" ht="13.2">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" ht="13.2">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" ht="13.2">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="13.2">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="2:19" ht="13.2">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" ref="L42:L45" si="4">IF(AND(K42="EI",J42="简单"),3,IF(AND(K42="EI",J42="普通"),4,IF(AND(K42="EI",J42="复杂"),6,IF(AND(K42="EO",J42="简单"),4,IF(AND(K42="EO",J42="普通"),5,IF(AND(K42="EO",J42="复杂"),7,IF(AND(K42="EQ",J42="简单"),3,IF(AND(K42="EQ",J42="普通"),4,IF(AND(K42="EQ",J42="复杂"),6,IF(AND(K42="ILF",J42="简单"),7,IF(AND(K42="ILF",J42="普通"),10,IF(AND(K42="ILF",J42="复杂"),15,IF(AND(K42="EIF",J42="简单"),5,IF(AND(K42="EIF",J42="普通"),7,IF(AND(K42="EIF",J42="复杂"),10,0)))))))))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="N42" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="21">
+        <f>SUM(R29:R41)</f>
+        <v>78</v>
+      </c>
+      <c r="S42" s="21"/>
+    </row>
+    <row r="43" spans="2:19" ht="13.2">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" ht="13.2">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="13.2">
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" ht="13.2">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="2:19" ht="13.2">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" ref="L47:L49" si="5">IF(AND(K47="EI",J47="简单"),3,IF(AND(K47="EI",J47="普通"),4,IF(AND(K47="EI",J47="复杂"),6,IF(AND(K47="EO",J47="简单"),4,IF(AND(K47="EO",J47="普通"),5,IF(AND(K47="EO",J47="复杂"),7,IF(AND(K47="EQ",J47="简单"),3,IF(AND(K47="EQ",J47="普通"),4,IF(AND(K47="EQ",J47="复杂"),6,IF(AND(K47="ILF",J47="简单"),7,IF(AND(K47="ILF",J47="普通"),10,IF(AND(K47="ILF",J47="复杂"),15,IF(AND(K47="EIF",J47="简单"),5,IF(AND(K47="EIF",J47="普通"),7,IF(AND(K47="EIF",J47="复杂"),10,0)))))))))))))))</f>
+        <v>3</v>
+      </c>
+      <c r="N47" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="21">
+        <f>SUM(R34:R46)</f>
+        <v>117</v>
+      </c>
+      <c r="S47" s="21"/>
+    </row>
+    <row r="48" spans="2:19" ht="13.2">
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="13.2">
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="13.2">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" ref="L50" si="6">IF(AND(K50="EI",J50="简单"),3,IF(AND(K50="EI",J50="普通"),4,IF(AND(K50="EI",J50="复杂"),6,IF(AND(K50="EO",J50="简单"),4,IF(AND(K50="EO",J50="普通"),5,IF(AND(K50="EO",J50="复杂"),7,IF(AND(K50="EQ",J50="简单"),3,IF(AND(K50="EQ",J50="普通"),4,IF(AND(K50="EQ",J50="复杂"),6,IF(AND(K50="ILF",J50="简单"),7,IF(AND(K50="ILF",J50="普通"),10,IF(AND(K50="ILF",J50="复杂"),15,IF(AND(K50="EIF",J50="简单"),5,IF(AND(K50="EIF",J50="普通"),7,IF(AND(K50="EIF",J50="复杂"),10,0)))))))))))))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="13.2">
+      <c r="B51" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="12">
+        <f>SUM(L7:L51)</f>
+        <v>167</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="13"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="40"/>
     </row>
-    <row r="32" spans="2:19">
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
+    <row r="54" spans="2:12">
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
+    <row r="55" spans="2:12">
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
+    <row r="56" spans="2:12">
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="46"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:L28">
+  <autoFilter ref="B6:L51">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
-  <mergeCells count="49">
-    <mergeCell ref="B31:I34"/>
+  <mergeCells count="52">
+    <mergeCell ref="B53:I56"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="N20:Q20"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="N47:Q47"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="N17:O17"/>
@@ -9137,7 +9744,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -9148,10 +9754,10 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R6:R19">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K50">
       <formula1>"EI,EO,EQ,ILF,EIF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J50">
       <formula1>"复杂,普通,简单"</formula1>
     </dataValidation>
   </dataValidations>
